--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuyijun/work/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8130589-951A-974B-8545-57DCBCA024FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D43870-75A3-6346-A358-1AB01F60D559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{73DF6C7C-E18C-4443-A244-B801EF921564}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{73DF6C7C-E18C-4443-A244-B801EF921564}"/>
   </bookViews>
   <sheets>
     <sheet name="tasktree" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>23-24 years old daily report</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>提问&amp;回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. missing-semester 课程概览与shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. missing-semester Shell工具与脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 完成嵌入式系统大实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,19 +518,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF42C4C-8780-5045-84EF-5C264E24AC56}">
   <dimension ref="C3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1761,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3161302-2FEB-AB44-8142-41E112358D06}">
   <dimension ref="A1:PD66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5931,8 +5943,12 @@
       <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -6296,7 +6312,7 @@
       <c r="NB5" s="8"/>
       <c r="NC5" s="8"/>
     </row>
-    <row r="6" spans="1:420" ht="17">
+    <row r="6" spans="1:420" ht="51">
       <c r="A6" s="21"/>
       <c r="B6" s="24" t="s">
         <v>9</v>
@@ -6304,7 +6320,9 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>

--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuyijun/work/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D43870-75A3-6346-A358-1AB01F60D559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71EE86F-4685-694C-B0E9-54F6283AAB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{73DF6C7C-E18C-4443-A244-B801EF921564}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>23-24 years old daily report</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>1. 完成嵌入式系统大实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 配置 mac terminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. missing-semester vim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.vim configure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1774,7 +1786,7 @@
   <dimension ref="A1:PD66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5949,7 +5961,9 @@
       <c r="G5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6323,8 +6337,12 @@
       <c r="F6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>

--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuyijun/work/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71EE86F-4685-694C-B0E9-54F6283AAB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06F8B59-9073-F84A-A455-F7A374C8F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{73DF6C7C-E18C-4443-A244-B801EF921564}"/>
   </bookViews>
@@ -1786,7 +1786,7 @@
   <dimension ref="A1:PD66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6340,7 +6340,7 @@
       <c r="G6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="8"/>

--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuyijun/work/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06F8B59-9073-F84A-A455-F7A374C8F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E85E32-B435-3D46-AD5E-75A93590BFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{73DF6C7C-E18C-4443-A244-B801EF921564}"/>
   </bookViews>
@@ -1786,7 +1786,7 @@
   <dimension ref="A1:PD66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuyijun/work/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E85E32-B435-3D46-AD5E-75A93590BFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAF5615-CF62-0345-85FF-E910B104799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{73DF6C7C-E18C-4443-A244-B801EF921564}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{73DF6C7C-E18C-4443-A244-B801EF921564}"/>
   </bookViews>
   <sheets>
     <sheet name="tasktree" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Missing Semester" sheetId="5" r:id="rId2"/>
+    <sheet name="COD" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
     <sheet name="timeline" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="288">
   <si>
     <t>23-24 years old daily report</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>本科课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术栈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -162,16 +158,1049 @@
     <t>2.vim configure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. data wrangling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. command-line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天复习课程，晚上看视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 《COD》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. git video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 算法基础课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$1. 计算机抽象及相关技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$2. 指令：计算机的语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$3. 计算机的算术运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$4. 处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$5. 大而快：层次化存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$6. 并行处理器：从客户端到云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 引言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1 传统的计算应用分类及其特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2 欢迎来到后PC时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3 你能从本书中学到什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 计算机体系结构中的8个伟大思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1 面向摩尔定律的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2 使用抽象简化设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.3 加速经常性事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.4 通过并行提高性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.5 通过流水线提高性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.6 通过预测提高性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.7 存储层次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.8 通过冗余提高可靠性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 程序表象之下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4 箱盖后的硬件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.1 显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.2 触摸屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3 打开机箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.4 数据安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.5 与其他计算机通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 处理器和存储制造技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6 性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1 性能的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2 性能的度量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.3 CPU性能及其度量因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4 指令性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.5 经典的CPU性能公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7 功耗墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8 沧海巨变：从单处理器向多处理器转变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9 实例：测评 Intel Core i7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9.1 SPEC CPU 基准测评程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9.2 SPEC 功耗基准测评程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10 谬误与陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.11 本章小结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.12 历史视角和拓展阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.13 练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 引言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 计算机硬件的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 计算机硬件的操作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1 存储器操作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2 常数或立即数操作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 有符号数与无符号数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5 计算机中的指令表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6 逻辑操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7 用于决策的指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7.1 循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7.2 边界检查的简便方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7.3 case/switch语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8 计算机硬件对过程的支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8.1 使用更多的寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8.2 嵌套过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8.3 在栈中为新数据分配空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8.4 在堆中为新数据分配空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9 人机交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10 对大立即数的RISC-V编址和寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10.1 大立即数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10.2 分支中的寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10.3 RISC-V寻址模式总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10.4 机器语言译码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.11 指令与并行性：同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12 翻译并启动程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12.1 编译器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12.2 汇编器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12.3 链接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12.4 加载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12.5 动态链接库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12.6 启动Java程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13 以C排序过程为例的汇总整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13.1 swap过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13.2 sort过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.14 数组与指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.14.1 用数组实现clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.14.2 用指针实现clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.14.3 比较两个版本的clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.15 高级专题：编译C语言和解释Java语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.16 实例：MIPS指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.17 实例：x86指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.17.1 Intel x86的演变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.17.2 x86寄存器和寻址模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.17.3 x86整数操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.17.4 x86指令编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.17.5 x86总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.18 实例：RISC-V指令系统的剩余部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.19 谬误与陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.20 本章小结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.21 历史视角和扩展阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.22 练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 引言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 加法和减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1 串行版的乘法算法及其硬件实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.2 带符号乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.3 快速乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.4 RISC-V中的乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.5 总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.1 除法算法及其硬件实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.2 有符号除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.3 快速除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.4 RISC-V中的除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.5 总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 浮点运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.1 浮点表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.2 例外和中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.3 IEEE754浮点数标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.4 浮点加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.5 浮点乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.6 RISC-V中的浮点指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.7 精确算术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.8 总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6 并行性与计算机算术：子字并行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7 实例：x86中的SIMD扩展和高级向量扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8 加速：子字并行和矩阵乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9 谬误与陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10 本章小结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.11 历史视角和拓展阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.12 练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 引言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1 一种基本的RISC-V实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2 实现概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 逻辑设计的一般方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 建立数据通路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 一个简单的实现方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.1 ALU控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.2 设计主控制单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.3 数据通路操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.4 控制的结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.5 为什么现在不使用单周期实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 流水线概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.1 面向流水线的指令系统设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.2 流水线冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.3 总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6 流水线数据通路和控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6.1 流水线的图形化表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6.2 流水线控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7 数据冒险：前递与停顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8 控制冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8.1 假设分支不发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8.2 缩短分支延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8.3 动态分支预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8.4 流水线总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9 例外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9.1 RISC-V体系结构中如何处理例外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9.2 流水线实现中的例外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.10 指令间的并行性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.10.1 推测的概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.10.2 静态多发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.10.3 动态多发射处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.10.4 高级流水线和能效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.11 实例：ARM Cortex-A53和Intel Core i7流水线结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.11.1 ARM Cortex-A53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.11.2 Intel Core i7 920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.11.3 Intel Core i7处理器的性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.12 加速：指令级并行和矩阵乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.13 高级专题：数字设计概述——使用硬件设计语言进行流水线建模以及更多流水线实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.14 谬误与陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 引言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 存储技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.1 SRAM存储技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.2 DRAM存储技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.3 闪存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.4 磁盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 cache基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.1 cache访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.2 处理cache失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.3 处理写操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.4 cache实例：Intrinsity FastMATH处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.5 总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 cache的性能评估和改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.1 使用更为灵活的替换策略降低cache失效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.2 在cache中查找数据块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.3 选择替换的数据块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.4 使用多级cache减少失效代价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.5 通过分块进行软件优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.6 总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5 可靠的存储器层次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5.1 失效的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5.2 纠正1位错、检测2位错的汉明编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6 虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6.1 虚拟机监视器的必备条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6.2 指令系统体系结构（缺乏）对虚拟机的支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6.3 保护和指令系统体系结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7 虚拟存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.1 页的存放和查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.2 缺页失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.3 支持大虚拟地址空间的虚拟存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.4 关于写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.5 加快地址转换：TLB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.6 Intrinsity FastMATH TLB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.7 集成虚拟存储、TLB和cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.8 虚拟存储中的保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.9 处理TLB失效和缺页失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.10 总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8 存储层次结构的一般框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8.1 块可以被放在何处？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8.2 如何找到块？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8.3 当cache发生失效时替换哪一块？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8.4 写操作如何处理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8.5 3C：一种理解存储层次结构的直观模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9 使用有限状态自动机控制简单的cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9.1 一个简单的cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9.2 有限状态自动机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9.3 使用有限状态自动机作为简单的cache控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10 并行和存储层次结构：cache一致性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10.1 实现一致性的基本方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10.2 监听协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11 并行和存储层次结构：廉价磁盘冗余阵列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12 高级专题：实现缓存控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.13 实例：ARM Cortex-A53和Intel Core i7的存储层次结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.14 实例：RISC-V系统的其他部分和特殊指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15 加速：cache分块和矩阵乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.16 谬误和陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.17 本章小结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18 历史视角和拓展阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.19 练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 引言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 创建并行处理程序的难点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3 SISD、MIMD、SIMD、SPMD和向量机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.1 x86中的SIMD：多媒体扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.2 向量机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.3 向量与标量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.4 向量与多媒体扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4 硬件多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5 多核及其他共享内存多处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6 GPU简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6.1 NVIDIA GPU体系结构简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6.2 NVIDIA GPU存储结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6.3 对GPU的展望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.7 集群、仓储级计算机和其他消息传递多处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8 多处理器网络拓扑简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.9 与外界通信：集群网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10 多处理器测试基准和性能模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10.1 性能模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10.2 Roofline模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10.3 两代Opteron的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.11 实例：测评Intel Core i7 960和NVIDIA Tesla GPU的Roofline模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.12 加速：多处理器和矩阵乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.13 谬误与陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.14 本章小结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.15 历史视角和拓展阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.16 练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaaa;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,8 +1280,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +1333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +1491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +1519,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,17 +1549,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,25 +1573,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1287,9 +2352,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635E397D-D022-8743-803A-CB6A4D180244}">
-  <dimension ref="B9:C38"/>
+  <dimension ref="B9:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="75" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:C38"/>
     </sheetView>
   </sheetViews>
@@ -1297,29 +2362,40 @@
   <sheetData>
     <row r="9" spans="2:3" ht="17" thickBot="1"/>
     <row r="10" spans="2:3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="2:3" ht="17" thickBot="1">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="14"/>
+      <c r="B37" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="33"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B37:C38"/>
+    <mergeCell ref="B55:C56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1332,7 +2408,7 @@
   <dimension ref="C3:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1346,405 +2422,405 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="29" customHeight="1">
-      <c r="C3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="3:13" ht="23" customHeight="1">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="I4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="J4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="K4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="L4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="M4" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="29"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="29"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="29"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="3:13">
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="29"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="29"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="29"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="3:13">
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="29"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="29"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="3:13">
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="29"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="29"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="3:13">
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="29"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="3:13">
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="29"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="3:13">
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="29"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="3:13">
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="29"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="3:13">
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="29"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="3:13">
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="29"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="29"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="3:13">
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="29"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="3:13">
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="29"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="29"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="29"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="29"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="29"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="29"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1757,12 +2833,1498 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A6551-92D2-5841-8D18-61A82D0D973A}">
-  <dimension ref="A1"/>
+  <dimension ref="E3:O81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:15" ht="23">
+      <c r="E3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="5:15" ht="17">
+      <c r="E4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="5:15" ht="17">
+      <c r="E5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="5:15" ht="34">
+      <c r="E6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="5:15" ht="17">
+      <c r="E7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="5:15" ht="34">
+      <c r="E8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="5:15" ht="34">
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="5:15" ht="34">
+      <c r="E10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="5:15" ht="34">
+      <c r="E11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="5:15" ht="17">
+      <c r="E12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="5:15" ht="17">
+      <c r="E13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="5:15" ht="17">
+      <c r="E14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="5:15" ht="17">
+      <c r="E15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="5:15" ht="17">
+      <c r="E16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="5:15" ht="34">
+      <c r="E17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="5:15" ht="34">
+      <c r="E18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="5:15" ht="17">
+      <c r="E19" s="13"/>
+      <c r="F19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="5:15" ht="34">
+      <c r="E20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="5:15" ht="34">
+      <c r="E21" s="13"/>
+      <c r="F21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="5:15" ht="17">
+      <c r="E22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="5:15" ht="17">
+      <c r="E23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="5:15" ht="34">
+      <c r="E24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="5:15" ht="34">
+      <c r="E25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="5:15" ht="34">
+      <c r="E26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="5:15" ht="34">
+      <c r="E27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="5:15" ht="34">
+      <c r="E28" s="13"/>
+      <c r="F28" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="5:15" ht="34">
+      <c r="E29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="5:15" ht="34">
+      <c r="E30" s="13"/>
+      <c r="F30" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="5:15" ht="17">
+      <c r="E31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="5:15" ht="34">
+      <c r="E32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="5:15" ht="34">
+      <c r="E33" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="5:15" ht="34">
+      <c r="E34" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="5:15" ht="34">
+      <c r="E35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="5:15" ht="17">
+      <c r="E36" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="5:15" ht="34">
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="5:15" ht="34">
+      <c r="E38" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="5:15" ht="34">
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="5:15" ht="34">
+      <c r="E40" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="5:15" ht="17">
+      <c r="E41" s="13"/>
+      <c r="F41" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="5:15" ht="34">
+      <c r="E42" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="5:15" ht="34">
+      <c r="E43" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="K43" s="13"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="5:15" ht="34">
+      <c r="E44" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="5:15" ht="34">
+      <c r="E45" s="13"/>
+      <c r="F45" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="5:15" ht="34">
+      <c r="E46" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="13"/>
+    </row>
+    <row r="47" spans="5:15" ht="51">
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J47" s="14"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="13"/>
+    </row>
+    <row r="48" spans="5:15" ht="34">
+      <c r="E48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="5:15" ht="34">
+      <c r="E49" s="13"/>
+      <c r="F49" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="5:15" ht="34">
+      <c r="E50" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="13"/>
+    </row>
+    <row r="51" spans="5:15" ht="17">
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="13"/>
+    </row>
+    <row r="52" spans="5:15" ht="34">
+      <c r="E52" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="J52" s="14"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="5:15" ht="17">
+      <c r="E53" s="13"/>
+      <c r="F53" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="5:15" ht="68">
+      <c r="E54" s="13"/>
+      <c r="F54" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J54" s="14"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="5:15" ht="34">
+      <c r="E55" s="13"/>
+      <c r="F55" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="5:15" ht="34">
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="13"/>
+    </row>
+    <row r="57" spans="5:15" ht="34">
+      <c r="E57" s="13"/>
+      <c r="F57" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="13"/>
+    </row>
+    <row r="58" spans="5:15" ht="17">
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="13"/>
+    </row>
+    <row r="59" spans="5:15" ht="34">
+      <c r="E59" s="13"/>
+      <c r="F59" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="13"/>
+    </row>
+    <row r="60" spans="5:15">
+      <c r="E60" s="13"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="13"/>
+    </row>
+    <row r="61" spans="5:15" ht="34">
+      <c r="E61" s="13"/>
+      <c r="F61" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J61" s="14"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="13"/>
+    </row>
+    <row r="62" spans="5:15" ht="34">
+      <c r="E62" s="13"/>
+      <c r="F62" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="J62" s="14"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="13"/>
+    </row>
+    <row r="63" spans="5:15" ht="34">
+      <c r="E63" s="13"/>
+      <c r="F63" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="13"/>
+    </row>
+    <row r="64" spans="5:15" ht="17">
+      <c r="E64" s="13"/>
+      <c r="F64" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="13"/>
+    </row>
+    <row r="65" spans="5:15" ht="34">
+      <c r="E65" s="13"/>
+      <c r="F65" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J65" s="14"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="13"/>
+    </row>
+    <row r="66" spans="5:15" ht="17">
+      <c r="E66" s="13"/>
+      <c r="F66" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="13"/>
+    </row>
+    <row r="67" spans="5:15" ht="34">
+      <c r="E67" s="13"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="13"/>
+    </row>
+    <row r="68" spans="5:15" ht="34">
+      <c r="E68" s="13"/>
+      <c r="F68" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" s="13"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="13"/>
+    </row>
+    <row r="69" spans="5:15" ht="51">
+      <c r="E69" s="13"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="13"/>
+    </row>
+    <row r="70" spans="5:15" ht="17">
+      <c r="E70" s="13"/>
+      <c r="F70" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="13"/>
+    </row>
+    <row r="71" spans="5:15" ht="34">
+      <c r="E71" s="13"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="J71" s="14"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="13"/>
+    </row>
+    <row r="72" spans="5:15" ht="17">
+      <c r="E72" s="13"/>
+      <c r="F72" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="13"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="13"/>
+    </row>
+    <row r="73" spans="5:15" ht="34">
+      <c r="E73" s="13"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="J73" s="14"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="13"/>
+    </row>
+    <row r="74" spans="5:15" ht="34">
+      <c r="E74" s="13"/>
+      <c r="F74" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" s="13"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="13"/>
+    </row>
+    <row r="75" spans="5:15" ht="17">
+      <c r="E75" s="13"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J75" s="14"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="13"/>
+    </row>
+    <row r="76" spans="5:15" ht="17">
+      <c r="E76" s="13"/>
+      <c r="F76" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="13"/>
+    </row>
+    <row r="77" spans="5:15" ht="17">
+      <c r="I77" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="5:15">
+      <c r="I78" s="13"/>
+    </row>
+    <row r="79" spans="5:15" ht="17">
+      <c r="I79" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="5:15">
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="9:9" ht="17">
+      <c r="I81" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:O3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1785,8 +4347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3161302-2FEB-AB44-8142-41E112358D06}">
   <dimension ref="A1:PD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1818,32 +4380,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:420" ht="62">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="2"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
@@ -5942,42 +8506,70 @@
       </c>
     </row>
     <row r="5" spans="1:420" ht="51">
-      <c r="A5" s="20"/>
-      <c r="B5" s="25" t="s">
-        <v>8</v>
+      <c r="A5" s="23"/>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -6318,7 +8910,7 @@
       <c r="MV5" s="8"/>
       <c r="MW5" s="8"/>
       <c r="MX5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="MY5" s="8"/>
       <c r="MZ5" s="8"/>
@@ -6327,21 +8919,21 @@
       <c r="NC5" s="8"/>
     </row>
     <row r="6" spans="1:420" ht="51">
-      <c r="A6" s="21"/>
-      <c r="B6" s="24" t="s">
-        <v>9</v>
+      <c r="A6" s="24"/>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>30</v>
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -6356,7 +8948,9 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
+      <c r="V6" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -6703,8 +9297,8 @@
       <c r="NB6" s="8"/>
       <c r="NC6" s="8"/>
     </row>
-    <row r="7" spans="1:420">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:420" ht="17">
+      <c r="A7" s="24"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -6725,7 +9319,9 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
+      <c r="V7" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
@@ -7073,7 +9669,7 @@
       <c r="NC7" s="8"/>
     </row>
     <row r="8" spans="1:420">
-      <c r="A8" s="21"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -7442,7 +10038,7 @@
       <c r="NC8" s="8"/>
     </row>
     <row r="9" spans="1:420">
-      <c r="A9" s="21"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -7811,7 +10407,7 @@
       <c r="NC9" s="8"/>
     </row>
     <row r="10" spans="1:420">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -8180,7 +10776,7 @@
       <c r="NC10" s="8"/>
     </row>
     <row r="11" spans="1:420">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -8549,7 +11145,7 @@
       <c r="NC11" s="8"/>
     </row>
     <row r="12" spans="1:420">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -8918,7 +11514,7 @@
       <c r="NC12" s="8"/>
     </row>
     <row r="13" spans="1:420">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -9287,7 +11883,7 @@
       <c r="NC13" s="8"/>
     </row>
     <row r="14" spans="1:420">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -9656,7 +12252,7 @@
       <c r="NC14" s="8"/>
     </row>
     <row r="15" spans="1:420">
-      <c r="A15" s="21"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -10025,7 +12621,7 @@
       <c r="NC15" s="8"/>
     </row>
     <row r="16" spans="1:420">
-      <c r="A16" s="21"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -10394,7 +12990,7 @@
       <c r="NC16" s="8"/>
     </row>
     <row r="17" spans="1:367">
-      <c r="A17" s="21"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -10763,7 +13359,7 @@
       <c r="NC17" s="8"/>
     </row>
     <row r="18" spans="1:367">
-      <c r="A18" s="21"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -11132,7 +13728,7 @@
       <c r="NC18" s="8"/>
     </row>
     <row r="19" spans="1:367">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -11501,7 +14097,7 @@
       <c r="NC19" s="8"/>
     </row>
     <row r="20" spans="1:367">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -11870,7 +14466,7 @@
       <c r="NC20" s="8"/>
     </row>
     <row r="21" spans="1:367">
-      <c r="A21" s="21"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -12239,7 +14835,7 @@
       <c r="NC21" s="8"/>
     </row>
     <row r="22" spans="1:367">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -12608,7 +15204,7 @@
       <c r="NC22" s="8"/>
     </row>
     <row r="23" spans="1:367">
-      <c r="A23" s="21"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -12977,7 +15573,7 @@
       <c r="NC23" s="8"/>
     </row>
     <row r="24" spans="1:367">
-      <c r="A24" s="21"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -13346,7 +15942,7 @@
       <c r="NC24" s="8"/>
     </row>
     <row r="25" spans="1:367">
-      <c r="A25" s="21"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -13715,7 +16311,7 @@
       <c r="NC25" s="8"/>
     </row>
     <row r="26" spans="1:367">
-      <c r="A26" s="21"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -14084,7 +16680,7 @@
       <c r="NC26" s="8"/>
     </row>
     <row r="27" spans="1:367">
-      <c r="A27" s="21"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -14453,7 +17049,7 @@
       <c r="NC27" s="8"/>
     </row>
     <row r="28" spans="1:367">
-      <c r="A28" s="21"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -14822,7 +17418,7 @@
       <c r="NC28" s="8"/>
     </row>
     <row r="29" spans="1:367">
-      <c r="A29" s="21"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -15191,7 +17787,7 @@
       <c r="NC29" s="8"/>
     </row>
     <row r="30" spans="1:367">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -15560,7 +18156,7 @@
       <c r="NC30" s="8"/>
     </row>
     <row r="31" spans="1:367">
-      <c r="A31" s="21"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -15929,7 +18525,7 @@
       <c r="NC31" s="8"/>
     </row>
     <row r="32" spans="1:367">
-      <c r="A32" s="21"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -16298,7 +18894,7 @@
       <c r="NC32" s="8"/>
     </row>
     <row r="33" spans="1:367">
-      <c r="A33" s="21"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -16667,7 +19263,7 @@
       <c r="NC33" s="8"/>
     </row>
     <row r="34" spans="1:367">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -17036,7 +19632,7 @@
       <c r="NC34" s="8"/>
     </row>
     <row r="35" spans="1:367">
-      <c r="A35" s="21"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -17405,7 +20001,7 @@
       <c r="NC35" s="8"/>
     </row>
     <row r="36" spans="1:367">
-      <c r="A36" s="21"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -17774,7 +20370,7 @@
       <c r="NC36" s="8"/>
     </row>
     <row r="37" spans="1:367">
-      <c r="A37" s="21"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -18143,7 +20739,7 @@
       <c r="NC37" s="8"/>
     </row>
     <row r="38" spans="1:367">
-      <c r="A38" s="21"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -18512,7 +21108,7 @@
       <c r="NC38" s="8"/>
     </row>
     <row r="39" spans="1:367">
-      <c r="A39" s="21"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -18881,7 +21477,7 @@
       <c r="NC39" s="8"/>
     </row>
     <row r="40" spans="1:367">
-      <c r="A40" s="21"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -19250,7 +21846,7 @@
       <c r="NC40" s="8"/>
     </row>
     <row r="41" spans="1:367">
-      <c r="A41" s="21"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -19619,7 +22215,7 @@
       <c r="NC41" s="8"/>
     </row>
     <row r="42" spans="1:367">
-      <c r="A42" s="21"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -19988,7 +22584,7 @@
       <c r="NC42" s="8"/>
     </row>
     <row r="43" spans="1:367">
-      <c r="A43" s="21"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -20357,7 +22953,7 @@
       <c r="NC43" s="8"/>
     </row>
     <row r="44" spans="1:367">
-      <c r="A44" s="21"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -20726,7 +23322,7 @@
       <c r="NC44" s="8"/>
     </row>
     <row r="45" spans="1:367">
-      <c r="A45" s="21"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -21095,7 +23691,7 @@
       <c r="NC45" s="8"/>
     </row>
     <row r="46" spans="1:367">
-      <c r="A46" s="21"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -21464,7 +24060,7 @@
       <c r="NC46" s="8"/>
     </row>
     <row r="47" spans="1:367">
-      <c r="A47" s="21"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -21833,7 +24429,7 @@
       <c r="NC47" s="8"/>
     </row>
     <row r="48" spans="1:367">
-      <c r="A48" s="21"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -22202,7 +24798,7 @@
       <c r="NC48" s="8"/>
     </row>
     <row r="49" spans="1:367">
-      <c r="A49" s="21"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -22571,7 +25167,7 @@
       <c r="NC49" s="8"/>
     </row>
     <row r="50" spans="1:367">
-      <c r="A50" s="21"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -22940,7 +25536,7 @@
       <c r="NC50" s="8"/>
     </row>
     <row r="51" spans="1:367">
-      <c r="A51" s="21"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -23309,7 +25905,7 @@
       <c r="NC51" s="8"/>
     </row>
     <row r="52" spans="1:367">
-      <c r="A52" s="21"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -23678,7 +26274,7 @@
       <c r="NC52" s="8"/>
     </row>
     <row r="53" spans="1:367">
-      <c r="A53" s="21"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -24047,7 +26643,7 @@
       <c r="NC53" s="8"/>
     </row>
     <row r="54" spans="1:367">
-      <c r="A54" s="21"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -24416,7 +27012,7 @@
       <c r="NC54" s="8"/>
     </row>
     <row r="55" spans="1:367">
-      <c r="A55" s="21"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -24785,7 +27381,7 @@
       <c r="NC55" s="8"/>
     </row>
     <row r="56" spans="1:367">
-      <c r="A56" s="21"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -25154,7 +27750,7 @@
       <c r="NC56" s="8"/>
     </row>
     <row r="57" spans="1:367">
-      <c r="A57" s="21"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -25523,7 +28119,7 @@
       <c r="NC57" s="8"/>
     </row>
     <row r="58" spans="1:367">
-      <c r="A58" s="21"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -25892,7 +28488,7 @@
       <c r="NC58" s="8"/>
     </row>
     <row r="59" spans="1:367">
-      <c r="A59" s="21"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -26261,7 +28857,7 @@
       <c r="NC59" s="8"/>
     </row>
     <row r="60" spans="1:367">
-      <c r="A60" s="21"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -26630,7 +29226,7 @@
       <c r="NC60" s="8"/>
     </row>
     <row r="61" spans="1:367">
-      <c r="A61" s="21"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -26999,7 +29595,7 @@
       <c r="NC61" s="8"/>
     </row>
     <row r="62" spans="1:367">
-      <c r="A62" s="21"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -27368,7 +29964,7 @@
       <c r="NC62" s="8"/>
     </row>
     <row r="63" spans="1:367">
-      <c r="A63" s="21"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -27737,7 +30333,7 @@
       <c r="NC63" s="8"/>
     </row>
     <row r="64" spans="1:367">
-      <c r="A64" s="21"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>

--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuyijun/work/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAF5615-CF62-0345-85FF-E910B104799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8A3F5-B8F8-C549-86A3-C08B03B71B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{73DF6C7C-E18C-4443-A244-B801EF921564}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="1" activeTab="8" xr2:uid="{73DF6C7C-E18C-4443-A244-B801EF921564}"/>
   </bookViews>
   <sheets>
     <sheet name="tasktree" sheetId="2" r:id="rId1"/>
     <sheet name="Missing Semester" sheetId="5" r:id="rId2"/>
     <sheet name="COD" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
-    <sheet name="timeline" sheetId="4" r:id="rId5"/>
+    <sheet name="编译原理" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
+    <sheet name="操作系统" sheetId="9" r:id="rId6"/>
+    <sheet name="数值分析" sheetId="10" r:id="rId7"/>
+    <sheet name="春招" sheetId="11" r:id="rId8"/>
+    <sheet name="timeline" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="672">
   <si>
     <t>23-24 years old daily report</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1187,6 +1191,1566 @@
   </si>
   <si>
     <t>6.16 练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 计算机系统概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 计算机的指令系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 数据表示及检错纠错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 算术运算及其电路实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">21 控制器概述、指令和指令系统 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 RISC-V指令系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 指令格式与数据通路设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 单周期CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 多周期CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 流水线技术概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 流水线结构冲突&amp;数据冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 控制冲突和异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 DRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33静态存储器及高速缓冲存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34 虚拟存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 外存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 RISC-V的系统模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 输入输出系统和设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42 总线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43 接口电路和外部设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡思乱想之前就要开始干了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐忍 早谋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我自初心向明月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词法分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自顶向下语法分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自底向上语法分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法制导的语义计算基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态语义分析与中间代码生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时存储组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标代码生成&amp;代码优化基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 基本思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 带回溯的自顶向下分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 自顶向下预测分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. LL（1）分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 First集合和Follow集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 LL（1）文法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 LL（1）分析的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.1 递归下降LL（1）分析程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.2 表驱动LL（1）分析程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 文法变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 消除左递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 提取左公因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. LL(1)分析中的出错处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语层恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 短语和直接短语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 移进-归约分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移进归约冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. LR分析方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 LR分析基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOTO表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 LR（0）分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增广文法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR(0)有限状态机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR(0)分析表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 SLR(1)分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 LR(1)分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR(1)有限状态机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR(1)分析表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 LALR(1)分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LALR(1)有限状态机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LALR(1)分析表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 二义文法在LR分析中的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. LR分析中的错误处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 符号表的作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 符号的常见属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 符号表的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 符号表体现作用域与可见性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 作用域与单符号表组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 作用域与多符号表组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 基于属性文法的语义计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 属性文法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合属性和继承属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 遍历分析树进行语义计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 S-属性文法和L-属性文法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4 基于S-属性文法的语义计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 基于L-属性文法的语义计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 基于翻译模式的语义计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 翻译模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-翻译模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-翻译模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 基于S-翻译模式的语义计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 基于L-翻译模式的自顶向下语义计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 基于L-翻译模式的自顶向上语义计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 语法制导的静态语义分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 静态语义分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 类型检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个简单语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型系统相关话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法制导的类型检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 语法制导的中间代码生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 常见的中间表示形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 生成抽象语法树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 生成三地址码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋值语句及算术表达式的翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明语句的翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组说明和数组元素引用的翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔表达式的翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制语句的翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉链与代码回填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程调用的翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 运行时存储组织的作用与任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 程序运行时存储空间的布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 存储分配策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 静态存储分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 栈式存储分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 堆式存储分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 活动记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 过程活动记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 嵌套过程定义中非局部量的访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 嵌套程序块的非局部量访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 动态作用域规则vs静态作用域规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 过程调用与参数传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 基本块、流图和循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 基本块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 流图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 数据流分析基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 数据流方程的概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 到达-定值数据流分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 活跃变量数据流分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 几种重要的变量使用数据流信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UD链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DU链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本块内变量的待用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本块内变量的活跃信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 代码优化技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 窥孔优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 局部优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 循环优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码外提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归纳变量的删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 全局优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 目标代码生成技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 目标代码生成的主要环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 一个简单的代码生成算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 高效使用寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 图着色寄存器分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号处理原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号的基本概念与数学基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号的分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散时间信号的傅里叶分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤波器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 信号的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 欧拉公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 函数分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 信号的基本运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 奇异信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 信号的分解方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 信号的正交分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 信号的正交变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 非周期信号的FT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. FT与FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. FT的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 常用信号的FT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 采样与采样定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 离散时间傅里叶变换DTFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 离散傅里叶变换DFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 有限长离散时间傅里叶变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 离散傅里叶变换的快速算法FFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 过采样和抽取、提升采样率和插零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 滤波器介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 系统响应的分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 滤波器进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Z变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 特定序列ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 常见序列及其ZT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. ZT的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 逆Z变换的求解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 数字滤波器的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复变函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在第六章录像中有一个错误: Re(z_1)&gt;x_0, 应为 0&lt;arg(z_1-x_0)-\theta_0&lt;\pi. </t>
+  </si>
+  <si>
+    <t>1. 操作系统课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 复习复变至少1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os lecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一 操作系统概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二 实验介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三 基于特权级的隔离与批处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四 多道程序与分时多任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五 物理内存管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六 虚拟存储管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七 进程管理与单处理器调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八 多处理器调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九 文件系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十 进程间通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一 线程与协程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二 同步与互斥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三 I/O设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四 日志的文件系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yuque.com/xyong-9fuoz/qczol5/glemuu?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 课程概述 &amp; 教学安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 什么是操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节 操作系统历史演化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四节 操作系统结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五节 实践：试试UNIX/Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 实践与实验简要分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 Compiler与OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节 硬件启动与软件启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四节 实践：裸机程序-LibOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 从OS角度看计算机系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 从OS角度看RISC-V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节 实践：批处理操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节思考题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 进程和进程模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 实践：多道程序与分时多任务操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验一 增加系统调用`sys_task_info()`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第0节 回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 地址空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 内存分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节 实践：建立地址空间的OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 虚拟存储概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 局部页面置换算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节 全局页面置换算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验二 地址空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 进程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 单处理器调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节 实时调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四节 实践：支持进程的操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 对称多处理与多核架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 多处理器调度概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节 Linux O(1) 调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四节 Linux CFS 调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五节 Linux/FreeBSD BFS 调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 文件和文件系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 文件系统的设计与实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节 支持崩溃一致性的文件系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四节 支持文件的操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 进程间通信(IPC)概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 支持IPC的OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 协程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持线程/协程的OS(TCOS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 信号量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节 管程与条件变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四节 同步互斥实例问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五节 死锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六节 支持同步互斥的OS(SMOS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节 设备接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节 磁盘子系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三节 支持device的OS（DOS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟母三迁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的兴趣在于如何制作实用精美的博客网站、能自动记录摸鱼时间的插件，而不是学习计算机组成原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值分析作业和复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章 数值计算导论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章 非线性方程求根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章 线性方程组的直接解法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章 线性方程组的迭代解法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章 矩阵特征值计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六章 函数逼近与函数插值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七章 数值积分与数值微分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八章 常微分方程初值问题的解法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 误差分析基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差的来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对误差，相对误差，误差限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效数字，定理1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理1.3，定理1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算误差与数据传递误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截断误差与舍入误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题的敏感性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法的稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 计算机浮点数系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点数的表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵消现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 计算结果的准确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少舍入误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 非线性方程基本理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m重根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非线性方程的绝对条件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 二分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 不动点迭代法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解几何含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局收敛充分条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 数值分析作业和复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 数值分析实验1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 隔离机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离要解决的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是隔离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS隔离APP的分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据隔离：虚拟内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟内存的工作原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制隔离：特权模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特权模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间隔离：中断/异常机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断处理例程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常处理例程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统调用处理例程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断vs异常vs系统调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. OS与硬件的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. OS与应用程序的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程切换vs函数切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 主流CPU比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. RISC-V系统模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个特权级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSR寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过CSR寄存器实现的隔离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. RISC-V系统编 程 ： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⽤户态编程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特权操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U-Mode编程 ：系统调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">⽤ </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. os实验环境配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. os前三周复习总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望每天有一个半小时学习15213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天有一个小时准备面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天有半个小时写mhy的程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00~11:00p.m.
+SMTWRF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了15213-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. hpc hw1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 15213-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看网络原理书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mhy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有内推的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞莱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬微趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没内推的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理2.3~2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部收敛定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性与收敛阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理2.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 牛顿法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定理2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代法的判停准则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛顿法的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 割线法和抛物线法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeroin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值分析作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络编程作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理和数电实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1200,7 +2764,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaaa;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1286,6 +2850,47 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1343,7 +2948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1485,13 +3090,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,6 +3156,48 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1548,33 +3209,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1600,18 +3234,43 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="24" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="24" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2056,7 +3715,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2344,7 +4003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2362,34 +4021,34 @@
   <sheetData>
     <row r="9" spans="2:3" ht="17" thickBot="1"/>
     <row r="10" spans="2:3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="2:3" ht="17" thickBot="1">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="34"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="33"/>
+      <c r="C55" s="38"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="34"/>
-      <c r="C56" s="35"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2405,10 +4064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF42C4C-8780-5045-84EF-5C264E24AC56}">
-  <dimension ref="C3:M31"/>
+  <dimension ref="C3:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:M31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2422,19 +4081,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="29" customHeight="1">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="3:13" ht="23" customHeight="1">
       <c r="C4" s="11" t="s">
@@ -2822,9 +4481,387 @@
       <c r="L31" s="14"/>
       <c r="M31" s="13"/>
     </row>
+    <row r="37" spans="3:13" ht="23">
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="13"/>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="13"/>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="13"/>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="13"/>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="13"/>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="13"/>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="13"/>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="13"/>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="13"/>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="3:13">
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="13"/>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58" spans="3:13">
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="13"/>
+    </row>
+    <row r="59" spans="3:13">
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60" spans="3:13">
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="13"/>
+    </row>
+    <row r="61" spans="3:13">
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="13"/>
+    </row>
+    <row r="62" spans="3:13">
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="13"/>
+    </row>
+    <row r="63" spans="3:13">
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="13"/>
+    </row>
+    <row r="64" spans="3:13">
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="13"/>
+    </row>
+    <row r="65" spans="3:13">
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C37:M37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2833,10 +4870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A6551-92D2-5841-8D18-61A82D0D973A}">
-  <dimension ref="E3:O81"/>
+  <dimension ref="E3:AQ162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2849,37 +4886,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:15" ht="23">
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="5:15" ht="17">
       <c r="E4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K4" s="11"/>
@@ -2889,13 +4926,13 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="5:15" ht="17">
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="19" t="s">
         <v>134</v>
       </c>
       <c r="H5" s="14" t="s">
@@ -2914,7 +4951,7 @@
       <c r="O5" s="13"/>
     </row>
     <row r="6" spans="5:15" ht="34">
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="19" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="14"/>
@@ -2931,13 +4968,13 @@
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="5:15" ht="17">
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="19" t="s">
         <v>135</v>
       </c>
       <c r="H7" s="14" t="s">
@@ -2956,7 +4993,7 @@
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="5:15" ht="34">
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="14"/>
@@ -2974,10 +5011,10 @@
     </row>
     <row r="9" spans="5:15" ht="34">
       <c r="E9" s="13"/>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="19" t="s">
         <v>136</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -2996,10 +5033,10 @@
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="5:15" ht="34">
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="20" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="13" t="s">
@@ -3019,13 +5056,13 @@
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="5:15" ht="34">
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H11" s="14" t="s">
@@ -3044,11 +5081,11 @@
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="5:15" ht="17">
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="19" t="s">
         <v>139</v>
       </c>
       <c r="H12" s="14"/>
@@ -3063,13 +5100,13 @@
       <c r="O12" s="13"/>
     </row>
     <row r="13" spans="5:15" ht="17">
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="19" t="s">
         <v>140</v>
       </c>
       <c r="H13" s="14" t="s">
@@ -3088,11 +5125,11 @@
       <c r="O13" s="13"/>
     </row>
     <row r="14" spans="5:15" ht="17">
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="19" t="s">
         <v>141</v>
       </c>
       <c r="H14" s="14" t="s">
@@ -3109,10 +5146,10 @@
       <c r="O14" s="13"/>
     </row>
     <row r="15" spans="5:15" ht="17">
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="13"/>
@@ -3132,11 +5169,11 @@
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="5:15" ht="17">
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="19" t="s">
         <v>142</v>
       </c>
       <c r="H16" s="14" t="s">
@@ -3153,13 +5190,13 @@
       <c r="O16" s="13"/>
     </row>
     <row r="17" spans="5:15" ht="34">
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="19" t="s">
         <v>143</v>
       </c>
       <c r="H17" s="14" t="s">
@@ -3178,7 +5215,7 @@
       <c r="O17" s="13"/>
     </row>
     <row r="18" spans="5:15" ht="34">
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="19" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="14"/>
@@ -3200,7 +5237,7 @@
     </row>
     <row r="19" spans="5:15" ht="17">
       <c r="E19" s="13"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="20" t="s">
         <v>91</v>
       </c>
       <c r="G19" s="13" t="s">
@@ -3218,10 +5255,10 @@
       <c r="O19" s="13"/>
     </row>
     <row r="20" spans="5:15" ht="34">
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="20" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="13" t="s">
@@ -3244,7 +5281,7 @@
     </row>
     <row r="21" spans="5:15" ht="34">
       <c r="E21" s="13"/>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="13" t="s">
@@ -3266,10 +5303,10 @@
       <c r="O21" s="13"/>
     </row>
     <row r="22" spans="5:15" ht="17">
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="20" t="s">
         <v>94</v>
       </c>
       <c r="G22" s="13"/>
@@ -3289,7 +5326,7 @@
       <c r="O22" s="13"/>
     </row>
     <row r="23" spans="5:15" ht="17">
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="19" t="s">
         <v>62</v>
       </c>
       <c r="F23" s="14"/>
@@ -3310,10 +5347,10 @@
       <c r="O23" s="13"/>
     </row>
     <row r="24" spans="5:15" ht="34">
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G24" s="13" t="s">
@@ -3333,10 +5370,10 @@
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="5:15" ht="34">
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="20" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="13" t="s">
@@ -3356,10 +5393,10 @@
       <c r="O25" s="13"/>
     </row>
     <row r="26" spans="5:15" ht="34">
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="20" t="s">
         <v>97</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -3381,10 +5418,10 @@
       <c r="O26" s="13"/>
     </row>
     <row r="27" spans="5:15" ht="34">
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="20" t="s">
         <v>98</v>
       </c>
       <c r="G27" s="13" t="s">
@@ -3403,7 +5440,7 @@
     </row>
     <row r="28" spans="5:15" ht="34">
       <c r="E28" s="13"/>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="20" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="13" t="s">
@@ -3423,7 +5460,7 @@
       <c r="O28" s="13"/>
     </row>
     <row r="29" spans="5:15" ht="34">
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="19" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="14"/>
@@ -3445,7 +5482,7 @@
     </row>
     <row r="30" spans="5:15" ht="34">
       <c r="E30" s="13"/>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="13" t="s">
@@ -3465,7 +5502,7 @@
       <c r="O30" s="13"/>
     </row>
     <row r="31" spans="5:15" ht="17">
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="19" t="s">
         <v>68</v>
       </c>
       <c r="F31" s="14"/>
@@ -3486,10 +5523,10 @@
       <c r="O31" s="13"/>
     </row>
     <row r="32" spans="5:15" ht="34">
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="20" t="s">
         <v>101</v>
       </c>
       <c r="G32" s="13"/>
@@ -3509,10 +5546,10 @@
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="5:15" ht="34">
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="20" t="s">
         <v>102</v>
       </c>
       <c r="G33" s="13" t="s">
@@ -3534,10 +5571,10 @@
       <c r="O33" s="13"/>
     </row>
     <row r="34" spans="5:15" ht="34">
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="20" t="s">
         <v>103</v>
       </c>
       <c r="G34" s="13"/>
@@ -3555,10 +5592,10 @@
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="5:15" ht="34">
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="20" t="s">
         <v>104</v>
       </c>
       <c r="G35" s="13" t="s">
@@ -3580,10 +5617,10 @@
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="5:15" ht="17">
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="20" t="s">
         <v>105</v>
       </c>
       <c r="G36" s="13"/>
@@ -3618,7 +5655,7 @@
       <c r="O37" s="13"/>
     </row>
     <row r="38" spans="5:15" ht="34">
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="19" t="s">
         <v>74</v>
       </c>
       <c r="F38" s="14" t="s">
@@ -3660,10 +5697,10 @@
       <c r="O39" s="13"/>
     </row>
     <row r="40" spans="5:15" ht="34">
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="20" t="s">
         <v>107</v>
       </c>
       <c r="G40" s="13"/>
@@ -3680,7 +5717,7 @@
     </row>
     <row r="41" spans="5:15" ht="17">
       <c r="E41" s="13"/>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="20" t="s">
         <v>108</v>
       </c>
       <c r="G41" s="13" t="s">
@@ -3702,10 +5739,10 @@
       <c r="O41" s="13"/>
     </row>
     <row r="42" spans="5:15" ht="34">
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="20" t="s">
         <v>109</v>
       </c>
       <c r="G42" s="13"/>
@@ -3723,10 +5760,10 @@
       <c r="O42" s="13"/>
     </row>
     <row r="43" spans="5:15" ht="34">
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="20" t="s">
         <v>110</v>
       </c>
       <c r="G43" s="13" t="s">
@@ -3748,10 +5785,10 @@
       <c r="O43" s="13"/>
     </row>
     <row r="44" spans="5:15" ht="34">
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="20" t="s">
         <v>111</v>
       </c>
       <c r="G44" s="13"/>
@@ -3769,8 +5806,8 @@
       <c r="O44" s="13"/>
     </row>
     <row r="45" spans="5:15" ht="34">
-      <c r="E45" s="13"/>
-      <c r="F45" s="14" t="s">
+      <c r="E45" s="19"/>
+      <c r="F45" s="20" t="s">
         <v>112</v>
       </c>
       <c r="G45" s="13" t="s">
@@ -3792,10 +5829,10 @@
       <c r="O45" s="13"/>
     </row>
     <row r="46" spans="5:15" ht="34">
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="20" t="s">
         <v>113</v>
       </c>
       <c r="G46" s="13"/>
@@ -3828,10 +5865,10 @@
       <c r="O47" s="13"/>
     </row>
     <row r="48" spans="5:15" ht="34">
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="20" t="s">
         <v>114</v>
       </c>
       <c r="G48" s="13"/>
@@ -3848,7 +5885,7 @@
     </row>
     <row r="49" spans="5:15" ht="34">
       <c r="E49" s="13"/>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="20" t="s">
         <v>115</v>
       </c>
       <c r="G49" s="13"/>
@@ -3866,10 +5903,10 @@
       <c r="O49" s="13"/>
     </row>
     <row r="50" spans="5:15" ht="34">
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="20" t="s">
         <v>116</v>
       </c>
       <c r="G50" s="13"/>
@@ -3902,10 +5939,10 @@
       <c r="O51" s="13"/>
     </row>
     <row r="52" spans="5:15" ht="34">
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="20" t="s">
         <v>117</v>
       </c>
       <c r="G52" s="13"/>
@@ -3924,7 +5961,7 @@
     </row>
     <row r="53" spans="5:15" ht="17">
       <c r="E53" s="13"/>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="20" t="s">
         <v>118</v>
       </c>
       <c r="G53" s="13"/>
@@ -3941,7 +5978,7 @@
     </row>
     <row r="54" spans="5:15" ht="68">
       <c r="E54" s="13"/>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="20" t="s">
         <v>119</v>
       </c>
       <c r="G54" s="13"/>
@@ -3960,7 +5997,7 @@
     </row>
     <row r="55" spans="5:15" ht="34">
       <c r="E55" s="13"/>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="20" t="s">
         <v>120</v>
       </c>
       <c r="G55" s="13"/>
@@ -4024,7 +6061,7 @@
     </row>
     <row r="59" spans="5:15" ht="34">
       <c r="E59" s="13"/>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="20" t="s">
         <v>122</v>
       </c>
       <c r="G59" s="13"/>
@@ -4167,7 +6204,7 @@
     </row>
     <row r="68" spans="5:15" ht="34">
       <c r="E68" s="13"/>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="20" t="s">
         <v>129</v>
       </c>
       <c r="G68" s="13"/>
@@ -4197,7 +6234,7 @@
     </row>
     <row r="70" spans="5:15" ht="17">
       <c r="E70" s="13"/>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="20" t="s">
         <v>130</v>
       </c>
       <c r="G70" s="13"/>
@@ -4227,7 +6264,7 @@
     </row>
     <row r="72" spans="5:15" ht="17">
       <c r="E72" s="13"/>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="20" t="s">
         <v>131</v>
       </c>
       <c r="G72" s="13"/>
@@ -4316,14 +6353,1047 @@
     <row r="80" spans="5:15">
       <c r="I80" s="13"/>
     </row>
-    <row r="81" spans="9:9" ht="17">
+    <row r="81" spans="5:43" ht="17">
       <c r="I81" s="13" t="s">
         <v>261</v>
       </c>
     </row>
+    <row r="89" spans="5:43" ht="23">
+      <c r="E89" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="41"/>
+      <c r="O89" s="41"/>
+    </row>
+    <row r="90" spans="5:43" ht="51">
+      <c r="E90" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="P90" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q90" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="R90" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="S90" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="T90" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="U90" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="V90" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="W90" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="X90" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="11"/>
+      <c r="AB90" s="12"/>
+      <c r="AC90" s="12"/>
+      <c r="AD90" s="11"/>
+      <c r="AE90" s="12"/>
+      <c r="AF90" s="11"/>
+      <c r="AG90" s="12"/>
+      <c r="AH90" s="12"/>
+      <c r="AI90" s="11"/>
+      <c r="AJ90" s="12"/>
+      <c r="AK90" s="11"/>
+      <c r="AL90" s="12"/>
+      <c r="AM90" s="12"/>
+      <c r="AN90" s="11"/>
+      <c r="AO90" s="12"/>
+      <c r="AP90" s="11"/>
+      <c r="AQ90" s="12"/>
+    </row>
+    <row r="91" spans="5:43">
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="13"/>
+    </row>
+    <row r="92" spans="5:43">
+      <c r="E92" s="19"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="13"/>
+    </row>
+    <row r="93" spans="5:43">
+      <c r="E93" s="19"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="13"/>
+    </row>
+    <row r="94" spans="5:43">
+      <c r="E94" s="19"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="13"/>
+    </row>
+    <row r="95" spans="5:43">
+      <c r="E95" s="13"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="13"/>
+    </row>
+    <row r="96" spans="5:43">
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="13"/>
+    </row>
+    <row r="97" spans="5:15">
+      <c r="E97" s="19"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="13"/>
+    </row>
+    <row r="98" spans="5:15">
+      <c r="E98" s="19"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="13"/>
+    </row>
+    <row r="99" spans="5:15">
+      <c r="E99" s="19"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="13"/>
+    </row>
+    <row r="100" spans="5:15">
+      <c r="E100" s="19"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="13"/>
+    </row>
+    <row r="101" spans="5:15">
+      <c r="E101" s="19"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="13"/>
+    </row>
+    <row r="102" spans="5:15">
+      <c r="E102" s="19"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="13"/>
+    </row>
+    <row r="103" spans="5:15">
+      <c r="E103" s="19"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="13"/>
+    </row>
+    <row r="104" spans="5:15">
+      <c r="E104" s="19"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="13"/>
+    </row>
+    <row r="105" spans="5:15">
+      <c r="E105" s="13"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="13"/>
+    </row>
+    <row r="106" spans="5:15">
+      <c r="E106" s="19"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="13"/>
+    </row>
+    <row r="107" spans="5:15">
+      <c r="E107" s="13"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="13"/>
+    </row>
+    <row r="108" spans="5:15">
+      <c r="E108" s="19"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="13"/>
+    </row>
+    <row r="109" spans="5:15">
+      <c r="E109" s="19"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="13"/>
+    </row>
+    <row r="110" spans="5:15">
+      <c r="E110" s="19"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="13"/>
+    </row>
+    <row r="111" spans="5:15">
+      <c r="E111" s="19"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="13"/>
+    </row>
+    <row r="112" spans="5:15">
+      <c r="E112" s="19"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="13"/>
+    </row>
+    <row r="113" spans="5:15">
+      <c r="E113" s="19"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="13"/>
+    </row>
+    <row r="114" spans="5:15">
+      <c r="E114" s="13"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="13"/>
+    </row>
+    <row r="115" spans="5:15">
+      <c r="E115" s="19"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="13"/>
+    </row>
+    <row r="116" spans="5:15">
+      <c r="E116" s="13"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="13"/>
+    </row>
+    <row r="117" spans="5:15">
+      <c r="E117" s="19"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="13"/>
+    </row>
+    <row r="118" spans="5:15">
+      <c r="E118" s="19"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="13"/>
+    </row>
+    <row r="119" spans="5:15">
+      <c r="E119" s="19"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="13"/>
+    </row>
+    <row r="120" spans="5:15">
+      <c r="E120" s="19"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="13"/>
+    </row>
+    <row r="121" spans="5:15">
+      <c r="E121" s="19"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="13"/>
+    </row>
+    <row r="122" spans="5:15">
+      <c r="E122" s="19"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="13"/>
+      <c r="N122" s="14"/>
+      <c r="O122" s="13"/>
+    </row>
+    <row r="123" spans="5:15">
+      <c r="E123" s="13"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="14"/>
+      <c r="O123" s="13"/>
+    </row>
+    <row r="124" spans="5:15">
+      <c r="E124" s="19"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="14"/>
+      <c r="O124" s="13"/>
+    </row>
+    <row r="125" spans="5:15">
+      <c r="E125" s="13"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="13"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="13"/>
+    </row>
+    <row r="126" spans="5:15">
+      <c r="E126" s="19"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="14"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="14"/>
+      <c r="O126" s="13"/>
+    </row>
+    <row r="127" spans="5:15">
+      <c r="E127" s="13"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="14"/>
+      <c r="O127" s="13"/>
+    </row>
+    <row r="128" spans="5:15">
+      <c r="E128" s="19"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="13"/>
+    </row>
+    <row r="129" spans="5:15">
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="13"/>
+    </row>
+    <row r="130" spans="5:15">
+      <c r="E130" s="19"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="13"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="13"/>
+    </row>
+    <row r="131" spans="5:15">
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="13"/>
+    </row>
+    <row r="132" spans="5:15">
+      <c r="E132" s="19"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="13"/>
+    </row>
+    <row r="133" spans="5:15">
+      <c r="E133" s="13"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="13"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="13"/>
+    </row>
+    <row r="134" spans="5:15">
+      <c r="E134" s="19"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="14"/>
+      <c r="O134" s="13"/>
+    </row>
+    <row r="135" spans="5:15">
+      <c r="E135" s="13"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="14"/>
+      <c r="O135" s="13"/>
+    </row>
+    <row r="136" spans="5:15">
+      <c r="E136" s="19"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="13"/>
+    </row>
+    <row r="137" spans="5:15">
+      <c r="E137" s="13"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="14"/>
+      <c r="O137" s="13"/>
+    </row>
+    <row r="138" spans="5:15">
+      <c r="E138" s="19"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="13"/>
+    </row>
+    <row r="139" spans="5:15">
+      <c r="E139" s="13"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="13"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="13"/>
+    </row>
+    <row r="140" spans="5:15">
+      <c r="E140" s="13"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="13"/>
+    </row>
+    <row r="141" spans="5:15">
+      <c r="E141" s="13"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="13"/>
+    </row>
+    <row r="142" spans="5:15">
+      <c r="E142" s="13"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="13"/>
+      <c r="N142" s="14"/>
+      <c r="O142" s="13"/>
+    </row>
+    <row r="143" spans="5:15">
+      <c r="E143" s="13"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="13"/>
+      <c r="N143" s="14"/>
+      <c r="O143" s="13"/>
+    </row>
+    <row r="144" spans="5:15">
+      <c r="E144" s="13"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="13"/>
+    </row>
+    <row r="145" spans="5:15">
+      <c r="E145" s="13"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="14"/>
+      <c r="O145" s="13"/>
+    </row>
+    <row r="146" spans="5:15">
+      <c r="E146" s="13"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="14"/>
+      <c r="M146" s="13"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="13"/>
+    </row>
+    <row r="147" spans="5:15">
+      <c r="E147" s="13"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="13"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="13"/>
+    </row>
+    <row r="148" spans="5:15">
+      <c r="E148" s="13"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="13"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="13"/>
+    </row>
+    <row r="149" spans="5:15">
+      <c r="E149" s="13"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="13"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="13"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="13"/>
+    </row>
+    <row r="150" spans="5:15">
+      <c r="E150" s="13"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="13"/>
+    </row>
+    <row r="151" spans="5:15">
+      <c r="E151" s="13"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="13"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="13"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="13"/>
+    </row>
+    <row r="152" spans="5:15">
+      <c r="E152" s="13"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="13"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="13"/>
+    </row>
+    <row r="153" spans="5:15">
+      <c r="E153" s="13"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="13"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="13"/>
+    </row>
+    <row r="154" spans="5:15">
+      <c r="E154" s="13"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="13"/>
+      <c r="N154" s="14"/>
+      <c r="O154" s="13"/>
+    </row>
+    <row r="155" spans="5:15">
+      <c r="E155" s="13"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="13"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="13"/>
+    </row>
+    <row r="156" spans="5:15">
+      <c r="E156" s="13"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="13"/>
+    </row>
+    <row r="157" spans="5:15">
+      <c r="E157" s="13"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="14"/>
+      <c r="M157" s="13"/>
+      <c r="N157" s="14"/>
+      <c r="O157" s="13"/>
+    </row>
+    <row r="158" spans="5:15">
+      <c r="E158" s="13"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="13"/>
+      <c r="L158" s="14"/>
+      <c r="M158" s="13"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="13"/>
+    </row>
+    <row r="159" spans="5:15">
+      <c r="E159" s="13"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="14"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="14"/>
+      <c r="M159" s="13"/>
+      <c r="N159" s="14"/>
+      <c r="O159" s="13"/>
+    </row>
+    <row r="160" spans="5:15">
+      <c r="E160" s="13"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="14"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="14"/>
+      <c r="O160" s="13"/>
+    </row>
+    <row r="161" spans="5:15">
+      <c r="E161" s="13"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="14"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="14"/>
+      <c r="M161" s="13"/>
+      <c r="N161" s="14"/>
+      <c r="O161" s="13"/>
+    </row>
+    <row r="162" spans="5:15">
+      <c r="E162" s="13"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="14"/>
+      <c r="M162" s="13"/>
+      <c r="N162" s="14"/>
+      <c r="O162" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E3:O3"/>
+    <mergeCell ref="E89:O89"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4331,24 +7401,2909 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1E0CDE-A88E-C64D-B7B7-87111AE5478C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9920B-9513-E140-9FBB-8DDA8D6131CE}">
+  <dimension ref="C11:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="3:13" ht="23">
+      <c r="C11" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="3:13" ht="51">
+      <c r="C12" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="3:13" ht="51">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="3:13" ht="51">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="3:13" ht="34">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="3:13" ht="51">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="3:13" ht="51">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="3:13" ht="51">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="3:13" ht="51">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="3:13" ht="51">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="3:13" ht="68">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="3:13" ht="51">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="3:13" ht="68">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="3:13" ht="51">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="3:13" ht="68">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="3:13" ht="51">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="3:13" ht="51">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="3:13" ht="34">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="3:13" ht="51">
+      <c r="C29" s="13"/>
+      <c r="D29" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="3:13" ht="34">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="3:13" ht="51">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="3:13" ht="34">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="3:13" ht="68">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="3:13" ht="51">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="3:13" ht="68">
+      <c r="C35" s="13"/>
+      <c r="D35" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="3:13" ht="17">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="3:13" ht="17">
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="3:13" ht="51">
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="3:13" ht="34">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="3:13" ht="34">
+      <c r="E40" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="17">
+      <c r="E41" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="17">
+      <c r="E42" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="34">
+      <c r="E43" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" ht="34">
+      <c r="E44" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" ht="34">
+      <c r="E45" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="17">
+      <c r="E46" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="17">
+      <c r="E47" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="34">
+      <c r="E48" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" ht="17">
+      <c r="E49" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" ht="51">
+      <c r="E50" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" ht="51">
+      <c r="E51" s="22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:M11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1E0CDE-A88E-C64D-B7B7-87111AE5478C}">
+  <dimension ref="E5:P74"/>
+  <sheetViews>
+    <sheetView topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="S43" sqref="R42:S43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="5" spans="5:15" ht="23">
+      <c r="E5" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+    </row>
+    <row r="6" spans="5:15" ht="51">
+      <c r="E6" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="5:15" ht="51">
+      <c r="E7" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="5:15" ht="34">
+      <c r="E8" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="5:15" ht="51">
+      <c r="E9" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="5:15" ht="51">
+      <c r="E10" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="5:15" ht="68">
+      <c r="E11" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="5:15" ht="34">
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="5:15" ht="34">
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="5:15" ht="34">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="5:15" ht="34">
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="5:15">
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="5:15">
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="5:15">
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="5:15">
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="5:15">
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="5:15">
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="5:15">
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="5:15">
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="5:15">
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="5:15">
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="5:15">
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="5:15">
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="5:15">
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="5:15">
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="5:15">
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="5:15">
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="5:15">
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="5:16">
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="46" spans="5:16" ht="23">
+      <c r="E46" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16">
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="5:16">
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="5:15">
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="5:15">
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="13"/>
+    </row>
+    <row r="51" spans="5:15">
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="13"/>
+    </row>
+    <row r="52" spans="5:15">
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="5:15">
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="5:15">
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="5:15">
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="5:15">
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="13"/>
+    </row>
+    <row r="57" spans="5:15">
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="13"/>
+    </row>
+    <row r="58" spans="5:15">
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="13"/>
+    </row>
+    <row r="59" spans="5:15">
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="13"/>
+    </row>
+    <row r="60" spans="5:15">
+      <c r="E60" s="13"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="13"/>
+    </row>
+    <row r="61" spans="5:15">
+      <c r="E61" s="13"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="13"/>
+    </row>
+    <row r="62" spans="5:15">
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="13"/>
+    </row>
+    <row r="63" spans="5:15">
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="13"/>
+    </row>
+    <row r="64" spans="5:15">
+      <c r="E64" s="13"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="13"/>
+    </row>
+    <row r="65" spans="5:15">
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="13"/>
+    </row>
+    <row r="66" spans="5:15">
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="13"/>
+    </row>
+    <row r="67" spans="5:15">
+      <c r="E67" s="13"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="13"/>
+    </row>
+    <row r="68" spans="5:15">
+      <c r="E68" s="13"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="13"/>
+    </row>
+    <row r="69" spans="5:15">
+      <c r="E69" s="13"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="13"/>
+    </row>
+    <row r="70" spans="5:15">
+      <c r="E70" s="13"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="13"/>
+    </row>
+    <row r="71" spans="5:15">
+      <c r="E71" s="13"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="13"/>
+    </row>
+    <row r="72" spans="5:15">
+      <c r="E72" s="13"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="13"/>
+    </row>
+    <row r="73" spans="5:15">
+      <c r="E73" s="13"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="13"/>
+    </row>
+    <row r="74" spans="5:15">
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="E46:O46"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE0C3D5-A87D-F944-942A-92B028D2942F}">
+  <dimension ref="A1:O45"/>
+  <sheetViews>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="J12" activeCellId="1" sqref="C35 J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="14" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="34">
+      <c r="A2" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="34">
+      <c r="A3" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="51">
+      <c r="A4" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="51">
+      <c r="A5" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" ht="34">
+      <c r="A6" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" ht="51">
+      <c r="A7" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" ht="34">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" ht="17">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" ht="17">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" ht="34">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" ht="34">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" ht="34">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" ht="34">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" ht="17">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" ht="34">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" ht="17">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" ht="17">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" ht="17">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="17">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" ht="34">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" ht="34">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" ht="34">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" ht="17">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" ht="17">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" ht="17">
+      <c r="C30" s="13" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17">
+      <c r="C31" s="13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="34">
+      <c r="C32" s="13" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="34">
+      <c r="C33" s="13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="34">
+      <c r="C34" s="13" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="17">
+      <c r="C35" s="13" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="3:3" ht="34">
+      <c r="C44" s="13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="17">
+      <c r="C45" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O1" r:id="rId1" xr:uid="{664F362B-D568-504E-BA49-A4268E0949DE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47783B1D-0A70-6145-8D0E-F7E114C36B2F}">
+  <dimension ref="E14:O42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="14" spans="5:15" ht="23">
+      <c r="E14" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+    </row>
+    <row r="15" spans="5:15" ht="68">
+      <c r="E15" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="5:15" ht="34">
+      <c r="E16" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="5:15" ht="17">
+      <c r="E17" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="5:15" ht="51">
+      <c r="E18" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="5:15" ht="34">
+      <c r="E19" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="5:15" ht="34">
+      <c r="E20" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="5:15" ht="51">
+      <c r="E21" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="5:15" ht="34">
+      <c r="E22" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="5:15" ht="34">
+      <c r="E23" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="5:15" ht="34">
+      <c r="E24" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="5:15" ht="34">
+      <c r="E25" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="5:15" ht="34">
+      <c r="E26" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="5:15" ht="34">
+      <c r="E27" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="5:15" ht="17">
+      <c r="E28" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="5:15" ht="34">
+      <c r="E29" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="5:15" ht="17">
+      <c r="E30" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="5:15" ht="34">
+      <c r="E31" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="5:15" ht="34">
+      <c r="E32" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="5:15" ht="34">
+      <c r="E33" s="13"/>
+      <c r="F33" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="5:15" ht="34">
+      <c r="E34" s="13"/>
+      <c r="F34" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="5:15" ht="34">
+      <c r="E35" s="13"/>
+      <c r="F35" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="5:15" ht="17">
+      <c r="E36" s="13"/>
+      <c r="F36" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="5:15">
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="5:15">
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="5:15">
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="5:15">
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="5:15">
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="5:15">
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E14:O14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1DDFAF-7DE7-E747-81D3-A7D3612F02C6}">
+  <dimension ref="A2:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D8" t="s">
+        <v>650</v>
+      </c>
+      <c r="E8" t="s">
+        <v>655</v>
+      </c>
+      <c r="F8" t="s">
+        <v>656</v>
+      </c>
+      <c r="G8" t="s">
+        <v>657</v>
+      </c>
+      <c r="H8" t="s">
+        <v>660</v>
+      </c>
+      <c r="I8" t="s">
+        <v>664</v>
+      </c>
+      <c r="J8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3161302-2FEB-AB44-8142-41E112358D06}">
   <dimension ref="A1:PD66"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="BU1" sqref="BU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4380,36 +10335,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:420" ht="62">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="25" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="27" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="15" t="s">
         <v>34</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
+      <c r="BB1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BC1" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="BD1" s="51"/>
+      <c r="BE1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BN1" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="BO1" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="BP1" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="BQ1" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="BS1" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="BT1" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="BU1" s="8" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="2" spans="1:420" ht="21">
       <c r="A2" s="3" t="s">
@@ -8506,7 +14492,7 @@
       </c>
     </row>
     <row r="5" spans="1:420" ht="51">
-      <c r="A5" s="23"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
@@ -8602,22 +14588,40 @@
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
       <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
+      <c r="BC5" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="BD5" s="8"/>
       <c r="BE5" s="8"/>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
+      <c r="BH5" s="8" t="s">
+        <v>491</v>
+      </c>
       <c r="BI5" s="8"/>
       <c r="BJ5" s="8"/>
       <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8"/>
-      <c r="BP5" s="8"/>
-      <c r="BQ5" s="8"/>
-      <c r="BR5" s="8"/>
+      <c r="BL5" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="BM5" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="BN5" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="BO5" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="BP5" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="BQ5" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="BR5" s="8" t="s">
+        <v>637</v>
+      </c>
       <c r="BS5" s="8"/>
       <c r="BT5" s="8"/>
       <c r="BU5" s="8"/>
@@ -8919,7 +14923,7 @@
       <c r="NC5" s="8"/>
     </row>
     <row r="6" spans="1:420" ht="51">
-      <c r="A6" s="24"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
@@ -8988,17 +14992,29 @@
       <c r="BE6" s="8"/>
       <c r="BF6" s="8"/>
       <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
+      <c r="BH6" s="8" t="s">
+        <v>492</v>
+      </c>
       <c r="BI6" s="8"/>
       <c r="BJ6" s="8"/>
       <c r="BK6" s="8"/>
       <c r="BL6" s="8"/>
       <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="8"/>
-      <c r="BR6" s="8"/>
+      <c r="BN6" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="BO6" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="BP6" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="BQ6" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="BR6" s="8" t="s">
+        <v>638</v>
+      </c>
       <c r="BS6" s="8"/>
       <c r="BT6" s="8"/>
       <c r="BU6" s="8"/>
@@ -9298,7 +15314,7 @@
       <c r="NC6" s="8"/>
     </row>
     <row r="7" spans="1:420" ht="17">
-      <c r="A7" s="24"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -9366,10 +15382,14 @@
       <c r="BL7" s="8"/>
       <c r="BM7" s="8"/>
       <c r="BN7" s="8"/>
-      <c r="BO7" s="8"/>
+      <c r="BO7" s="8" t="s">
+        <v>634</v>
+      </c>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="8"/>
-      <c r="BR7" s="8"/>
+      <c r="BR7" s="8" t="s">
+        <v>639</v>
+      </c>
       <c r="BS7" s="8"/>
       <c r="BT7" s="8"/>
       <c r="BU7" s="8"/>
@@ -9668,8 +15688,8 @@
       <c r="NB7" s="8"/>
       <c r="NC7" s="8"/>
     </row>
-    <row r="8" spans="1:420">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:420" ht="119">
+      <c r="A8" s="48"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -9728,7 +15748,9 @@
       <c r="BE8" s="8"/>
       <c r="BF8" s="8"/>
       <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
+      <c r="BH8" s="8" t="s">
+        <v>561</v>
+      </c>
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
       <c r="BK8" s="8"/>
@@ -10037,8 +16059,8 @@
       <c r="NB8" s="8"/>
       <c r="NC8" s="8"/>
     </row>
-    <row r="9" spans="1:420">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:420" ht="17">
+      <c r="A9" s="48"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -10097,7 +16119,9 @@
       <c r="BE9" s="8"/>
       <c r="BF9" s="8"/>
       <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
+      <c r="BH9" s="8" t="s">
+        <v>560</v>
+      </c>
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
       <c r="BK9" s="8"/>
@@ -10407,7 +16431,7 @@
       <c r="NC9" s="8"/>
     </row>
     <row r="10" spans="1:420">
-      <c r="A10" s="24"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -10776,7 +16800,7 @@
       <c r="NC10" s="8"/>
     </row>
     <row r="11" spans="1:420">
-      <c r="A11" s="24"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -11145,7 +17169,7 @@
       <c r="NC11" s="8"/>
     </row>
     <row r="12" spans="1:420">
-      <c r="A12" s="24"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -11514,7 +17538,7 @@
       <c r="NC12" s="8"/>
     </row>
     <row r="13" spans="1:420">
-      <c r="A13" s="24"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -11883,7 +17907,7 @@
       <c r="NC13" s="8"/>
     </row>
     <row r="14" spans="1:420">
-      <c r="A14" s="24"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -12252,7 +18276,7 @@
       <c r="NC14" s="8"/>
     </row>
     <row r="15" spans="1:420">
-      <c r="A15" s="24"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -12621,7 +18645,7 @@
       <c r="NC15" s="8"/>
     </row>
     <row r="16" spans="1:420">
-      <c r="A16" s="24"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -12990,7 +19014,7 @@
       <c r="NC16" s="8"/>
     </row>
     <row r="17" spans="1:367">
-      <c r="A17" s="24"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -13359,7 +19383,7 @@
       <c r="NC17" s="8"/>
     </row>
     <row r="18" spans="1:367">
-      <c r="A18" s="24"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -13728,7 +19752,7 @@
       <c r="NC18" s="8"/>
     </row>
     <row r="19" spans="1:367">
-      <c r="A19" s="24"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -14097,7 +20121,7 @@
       <c r="NC19" s="8"/>
     </row>
     <row r="20" spans="1:367">
-      <c r="A20" s="24"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -14466,7 +20490,7 @@
       <c r="NC20" s="8"/>
     </row>
     <row r="21" spans="1:367">
-      <c r="A21" s="24"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -14835,7 +20859,7 @@
       <c r="NC21" s="8"/>
     </row>
     <row r="22" spans="1:367">
-      <c r="A22" s="24"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -15204,7 +21228,7 @@
       <c r="NC22" s="8"/>
     </row>
     <row r="23" spans="1:367">
-      <c r="A23" s="24"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -15573,7 +21597,7 @@
       <c r="NC23" s="8"/>
     </row>
     <row r="24" spans="1:367">
-      <c r="A24" s="24"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -15942,7 +21966,7 @@
       <c r="NC24" s="8"/>
     </row>
     <row r="25" spans="1:367">
-      <c r="A25" s="24"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -16311,7 +22335,7 @@
       <c r="NC25" s="8"/>
     </row>
     <row r="26" spans="1:367">
-      <c r="A26" s="24"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -16680,7 +22704,7 @@
       <c r="NC26" s="8"/>
     </row>
     <row r="27" spans="1:367">
-      <c r="A27" s="24"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -17049,7 +23073,7 @@
       <c r="NC27" s="8"/>
     </row>
     <row r="28" spans="1:367">
-      <c r="A28" s="24"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -17418,7 +23442,7 @@
       <c r="NC28" s="8"/>
     </row>
     <row r="29" spans="1:367">
-      <c r="A29" s="24"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -17787,7 +23811,7 @@
       <c r="NC29" s="8"/>
     </row>
     <row r="30" spans="1:367">
-      <c r="A30" s="24"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -18156,7 +24180,7 @@
       <c r="NC30" s="8"/>
     </row>
     <row r="31" spans="1:367">
-      <c r="A31" s="24"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -18525,7 +24549,7 @@
       <c r="NC31" s="8"/>
     </row>
     <row r="32" spans="1:367">
-      <c r="A32" s="24"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -18894,7 +24918,7 @@
       <c r="NC32" s="8"/>
     </row>
     <row r="33" spans="1:367">
-      <c r="A33" s="24"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -19263,7 +25287,7 @@
       <c r="NC33" s="8"/>
     </row>
     <row r="34" spans="1:367">
-      <c r="A34" s="24"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -19632,7 +25656,7 @@
       <c r="NC34" s="8"/>
     </row>
     <row r="35" spans="1:367">
-      <c r="A35" s="24"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -20001,7 +26025,7 @@
       <c r="NC35" s="8"/>
     </row>
     <row r="36" spans="1:367">
-      <c r="A36" s="24"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -20370,7 +26394,7 @@
       <c r="NC36" s="8"/>
     </row>
     <row r="37" spans="1:367">
-      <c r="A37" s="24"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -20739,7 +26763,7 @@
       <c r="NC37" s="8"/>
     </row>
     <row r="38" spans="1:367">
-      <c r="A38" s="24"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -21108,7 +27132,7 @@
       <c r="NC38" s="8"/>
     </row>
     <row r="39" spans="1:367">
-      <c r="A39" s="24"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -21477,7 +27501,7 @@
       <c r="NC39" s="8"/>
     </row>
     <row r="40" spans="1:367">
-      <c r="A40" s="24"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -21846,7 +27870,7 @@
       <c r="NC40" s="8"/>
     </row>
     <row r="41" spans="1:367">
-      <c r="A41" s="24"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -22215,7 +28239,7 @@
       <c r="NC41" s="8"/>
     </row>
     <row r="42" spans="1:367">
-      <c r="A42" s="24"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -22584,7 +28608,7 @@
       <c r="NC42" s="8"/>
     </row>
     <row r="43" spans="1:367">
-      <c r="A43" s="24"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -22953,7 +28977,7 @@
       <c r="NC43" s="8"/>
     </row>
     <row r="44" spans="1:367">
-      <c r="A44" s="24"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -23322,7 +29346,7 @@
       <c r="NC44" s="8"/>
     </row>
     <row r="45" spans="1:367">
-      <c r="A45" s="24"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -23691,7 +29715,7 @@
       <c r="NC45" s="8"/>
     </row>
     <row r="46" spans="1:367">
-      <c r="A46" s="24"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -24060,7 +30084,7 @@
       <c r="NC46" s="8"/>
     </row>
     <row r="47" spans="1:367">
-      <c r="A47" s="24"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -24429,7 +30453,7 @@
       <c r="NC47" s="8"/>
     </row>
     <row r="48" spans="1:367">
-      <c r="A48" s="24"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -24798,7 +30822,7 @@
       <c r="NC48" s="8"/>
     </row>
     <row r="49" spans="1:367">
-      <c r="A49" s="24"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -25167,7 +31191,7 @@
       <c r="NC49" s="8"/>
     </row>
     <row r="50" spans="1:367">
-      <c r="A50" s="24"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -25536,7 +31560,7 @@
       <c r="NC50" s="8"/>
     </row>
     <row r="51" spans="1:367">
-      <c r="A51" s="24"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -25905,7 +31929,7 @@
       <c r="NC51" s="8"/>
     </row>
     <row r="52" spans="1:367">
-      <c r="A52" s="24"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -26274,7 +32298,7 @@
       <c r="NC52" s="8"/>
     </row>
     <row r="53" spans="1:367">
-      <c r="A53" s="24"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -26643,7 +32667,7 @@
       <c r="NC53" s="8"/>
     </row>
     <row r="54" spans="1:367">
-      <c r="A54" s="24"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -27012,7 +33036,7 @@
       <c r="NC54" s="8"/>
     </row>
     <row r="55" spans="1:367">
-      <c r="A55" s="24"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -27381,7 +33405,7 @@
       <c r="NC55" s="8"/>
     </row>
     <row r="56" spans="1:367">
-      <c r="A56" s="24"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -27750,7 +33774,7 @@
       <c r="NC56" s="8"/>
     </row>
     <row r="57" spans="1:367">
-      <c r="A57" s="24"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -28119,7 +34143,7 @@
       <c r="NC57" s="8"/>
     </row>
     <row r="58" spans="1:367">
-      <c r="A58" s="24"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -28488,7 +34512,7 @@
       <c r="NC58" s="8"/>
     </row>
     <row r="59" spans="1:367">
-      <c r="A59" s="24"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -28857,7 +34881,7 @@
       <c r="NC59" s="8"/>
     </row>
     <row r="60" spans="1:367">
-      <c r="A60" s="24"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -29226,7 +35250,7 @@
       <c r="NC60" s="8"/>
     </row>
     <row r="61" spans="1:367">
-      <c r="A61" s="24"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -29595,7 +35619,7 @@
       <c r="NC61" s="8"/>
     </row>
     <row r="62" spans="1:367">
-      <c r="A62" s="24"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -29964,7 +35988,7 @@
       <c r="NC62" s="8"/>
     </row>
     <row r="63" spans="1:367">
-      <c r="A63" s="24"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -30333,7 +36357,7 @@
       <c r="NC63" s="8"/>
     </row>
     <row r="64" spans="1:367">
-      <c r="A64" s="24"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -31438,10 +37462,11 @@
       <c r="NC66" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A5:A64"/>
     <mergeCell ref="J1:U1"/>
+    <mergeCell ref="BC1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
